--- a/elsa/sprint3/doc/Scrum_ELSA_Sprint_2.xlsx
+++ b/elsa/sprint3/doc/Scrum_ELSA_Sprint_2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="148">
   <si>
     <t xml:space="preserve">Product Name:</t>
   </si>
@@ -936,7 +936,274 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 04 Backlog'!$B$7:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="22013539"/>
+        <c:axId val="58047715"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="22013539"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58047715"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58047715"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="22013539"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1046,33 +1313,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="93458207"/>
-        <c:axId val="18071540"/>
+        <c:axId val="87960543"/>
+        <c:axId val="49023214"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93458207"/>
+        <c:axId val="87960543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1130,12 +1397,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18071540"/>
+        <c:crossAx val="49023214"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="18071540"/>
+        <c:axId val="49023214"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1201,7 +1468,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93458207"/>
+        <c:crossAx val="87960543"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1228,7 +1495,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1336,11 +1603,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="18023037"/>
-        <c:axId val="40290313"/>
+        <c:axId val="56774889"/>
+        <c:axId val="56964421"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="18023037"/>
+        <c:axId val="56774889"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,14 +1663,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40290313"/>
+        <c:crossAx val="56964421"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40290313"/>
+        <c:axId val="56964421"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,7 +1735,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18023037"/>
+        <c:crossAx val="56774889"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1495,7 +1762,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1603,11 +1870,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="92316397"/>
-        <c:axId val="33938770"/>
+        <c:axId val="24639922"/>
+        <c:axId val="3935527"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92316397"/>
+        <c:axId val="24639922"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,14 +1930,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33938770"/>
+        <c:crossAx val="3935527"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33938770"/>
+        <c:axId val="3935527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1735,7 +2002,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92316397"/>
+        <c:crossAx val="24639922"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1762,7 +2029,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1870,11 +2137,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="75430627"/>
-        <c:axId val="62886924"/>
+        <c:axId val="224104"/>
+        <c:axId val="62062437"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75430627"/>
+        <c:axId val="224104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,14 +2197,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62886924"/>
+        <c:crossAx val="62062437"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62886924"/>
+        <c:axId val="62062437"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,274 +2269,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75430627"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Sprint Burn Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 04 Backlog'!$B$7:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="77936618"/>
-        <c:axId val="33488271"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="77936618"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Days</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="33488271"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="33488271"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Tasks</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="77936618"/>
+        <c:crossAx val="224104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2480,7 +2480,7 @@
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2668,8 +2668,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="3" t="n">
-        <f aca="false">COUNT(B24:B127)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -2689,10 +2688,11 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="n">
-        <f aca="false">B12-C13</f>
-        <v>22</v>
-      </c>
-      <c r="C13" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="13" t="n">
@@ -2710,11 +2710,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="3" t="n">
-        <f aca="false">B13-C14</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C14" s="10" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
@@ -2733,12 +2732,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="n">
-        <f aca="false">B14-C15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="10" t="n">
-        <f aca="false">COUNTIF(G$24:G$101,"Finished in Sprint 3")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
@@ -2757,8 +2754,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="n">
-        <f aca="false">B15-C16</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" s="10" t="n">
         <f aca="false">COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
@@ -2777,8 +2773,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="n">
-        <f aca="false">B16-C17</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C17" s="10" t="n">
         <f aca="false">COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
@@ -3287,8 +3282,12 @@
       <c r="E36" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
+      <c r="F36" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="H36" s="23" t="s">
         <v>35</v>
       </c>
